--- a/Files/aluguel.xlsx
+++ b/Files/aluguel.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Valor_p</t>
+          <t>Valor Parcial</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -509,66 +509,58 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>132645</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1111111111111</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yan</t>
+          <t>yan 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 9999999</t>
+          <t>81 111111111111</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>rua 1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
+          <t>rua 1111111</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>101</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/04/2023</t>
+          <t>05/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22/04/2023</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>12/04/2023</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="M2" t="n">
+        <v>950</v>
+      </c>
       <c r="N2" t="n">
         <v>9854165</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Aberto</t>
+          <t>Fechado</t>
         </is>
       </c>
     </row>
